--- a/DUMMY_ACCOUNT_DETAILS_FOR_SERVICE_REMINDER_FUNCTIONALITY.xlsx
+++ b/DUMMY_ACCOUNT_DETAILS_FOR_SERVICE_REMINDER_FUNCTIONALITY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7381ED8-B931-4E4F-A6C2-00C6682507AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980043FE-77D7-4D49-AEAC-FF205F2A2D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45281553-EA85-4C59-A921-EF8A4E660CDB}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -567,8 +567,8 @@
     <hyperlink ref="D5" r:id="rId2" xr:uid="{92DB28FC-1101-4C78-85A9-9FEA7A7F5DBE}"/>
     <hyperlink ref="D6" r:id="rId3" xr:uid="{7143F92E-FB28-4AA6-A7C7-9E9A681B071E}"/>
     <hyperlink ref="D2" r:id="rId4" xr:uid="{E33FC224-2D8A-43CC-8559-8D8E8303D347}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{4E3EB203-6A9C-4B62-884C-29967E179A63}"/>
-    <hyperlink ref="C2" r:id="rId6" xr:uid="{7AEA8F4D-8F7D-4B53-ABE5-BA1B76C58685}"/>
+    <hyperlink ref="C2" r:id="rId5" xr:uid="{7AEA8F4D-8F7D-4B53-ABE5-BA1B76C58685}"/>
+    <hyperlink ref="C3" r:id="rId6" xr:uid="{4E3EB203-6A9C-4B62-884C-29967E179A63}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DUMMY_ACCOUNT_DETAILS_FOR_SERVICE_REMINDER_FUNCTIONALITY.xlsx
+++ b/DUMMY_ACCOUNT_DETAILS_FOR_SERVICE_REMINDER_FUNCTIONALITY.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TELOSA\TELOSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980043FE-77D7-4D49-AEAC-FF205F2A2D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0702D3F7-A812-4041-92EA-551F1C91A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{45281553-EA85-4C59-A921-EF8A4E660CDB}"/>
   </bookViews>
@@ -465,7 +465,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
